--- a/biology/Botanique/Sargassacées/Sargassacées.xlsx
+++ b/biology/Botanique/Sargassacées/Sargassacées.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sargassac%C3%A9es</t>
+          <t>Sargassacées</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Sargassaceae sont une famille d’algues brunes de l’ordre des Fucales.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sargassac%C3%A9es</t>
+          <t>Sargassacées</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Saragassum, dérivé du mot portugais « sargaço » ou de l’italien « sargasso » ou de l’espagnol « sargazo », signifiant « varech ».
-Le mot attesté depuis au moins 1597 provient de la « Mar dos Sargaços », mer située à l’ouest des Îles Canaries « ainsi nommée, par les Portugais, à cause du Sargasso, ou Cresson, dont elle est couverte »[3],[4].
+Le mot attesté depuis au moins 1597 provient de la « Mar dos Sargaços », mer située à l’ouest des Îles Canaries « ainsi nommée, par les Portugais, à cause du Sargasso, ou Cresson, dont elle est couverte »,.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sargassac%C3%A9es</t>
+          <t>Sargassacées</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon AlgaeBase                                           (4 février 2019)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon AlgaeBase                                           (4 février 2019) :
 Abrotanifolia Stackhouse
 Acinaria Donati
 Acrocarpia Areschoug
@@ -608,7 +624,7 @@
 Treptacantha Kützing
 Turbinaria J.V.Lamouroux
 Xiphophyllanthus Kuntze
-Selon Catalogue of Life                                   (4 février 2019)[5] :
+Selon Catalogue of Life                                   (4 février 2019) :
 Acrocarpia
 Acystis
 Anthophycus
@@ -638,7 +654,7 @@
 Scaberia
 Stolonophora
 Turbinaria
-Selon World Register of Marine Species                               (4 février 2019)[2] :
+Selon World Register of Marine Species                               (4 février 2019) :
 Acrocarpia Areschoug, 1854
 Acystis Schiffner, 1934
 Anthophycus Kützing, 1849
